--- a/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39312185-F804-47F8-BBCD-640707B1A28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9F9CCD-92D2-4808-B59E-4327EDEA883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E42B0BD9-DD4C-4290-BDBB-E2D07E47F146}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97C35B79-F9AE-4E9E-A0F0-5A92CF51F146}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>Menos</t>
@@ -104,28 +104,28 @@
     <t>9,78%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,28 +134,28 @@
     <t>90,22%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,7 +167,7 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -176,70 +176,70 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>3,81%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
   </si>
   <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -248,7 +248,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -257,31 +257,31 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>23,93%</t>
@@ -290,34 +290,34 @@
     <t>21,45%</t>
   </si>
   <si>
-    <t>26,34%</t>
+    <t>26,32%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>75,65%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -326,79 +326,79 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>27,76%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -407,79 +407,79 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -488,151 +488,148 @@
     <t>5,54%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>44,91%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>39,26%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
   </si>
   <si>
     <t>49,15%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>54,96%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>1,86%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>31,82%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>28,48%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>58,68%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>68,39%</t>
@@ -641,10 +638,10 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1059,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178A9410-D207-4D3F-B85A-2CD5504100B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E22B3C-543E-4E4A-8F8E-E01E2423BCDE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1804,10 +1801,10 @@
         <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -1816,10 +1813,10 @@
         <v>7429</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>99</v>
@@ -2422,10 +2419,10 @@
         <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>130</v>
@@ -2434,13 +2431,13 @@
         <v>87091</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>192</v>
@@ -2449,13 +2446,13 @@
         <v>134013</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2467,13 @@
         <v>812249</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>1733</v>
@@ -2485,13 +2482,13 @@
         <v>1175962</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>2627</v>
@@ -2500,13 +2497,13 @@
         <v>1988211</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,16 +2515,16 @@
         <v>2349</v>
       </c>
       <c r="D30" s="7">
-        <v>2424953</v>
+        <v>2424954</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>3345</v>
@@ -2536,28 +2533,28 @@
         <v>2433017</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>5694</v>
       </c>
       <c r="N30" s="7">
-        <v>4857971</v>
+        <v>4857970</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,7 +2566,7 @@
         <v>3305</v>
       </c>
       <c r="D31" s="7">
-        <v>3284124</v>
+        <v>3284125</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -2599,7 +2596,7 @@
         <v>8513</v>
       </c>
       <c r="N31" s="7">
-        <v>6980195</v>
+        <v>6980194</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9F9CCD-92D2-4808-B59E-4327EDEA883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{765F0806-4FE6-4387-BE2E-3A84D4E7B097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97C35B79-F9AE-4E9E-A0F0-5A92CF51F146}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B80742AE-F320-4EA9-8D74-A7B4EC9A7B42}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,372 +39,1950 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="720">
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>16/24</t>
+  </si>
+  <si>
+    <t>Más</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -416,9 +1997,6 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
@@ -428,223 +2006,199 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E22B3C-543E-4E4A-8F8E-E01E2423BCDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD99A272-55BB-4A23-84F3-781B691A2630}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1174,10 +2728,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>17529</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1189,10 +2743,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>2929</v>
+        <v>20365</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1204,10 +2758,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>2929</v>
+        <v>37894</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1225,10 +2779,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>34455</v>
+        <v>32619</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1240,10 +2794,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7">
-        <v>63184</v>
+        <v>36621</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1255,10 +2809,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>97640</v>
+        <v>69240</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1276,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>150</v>
+        <v>444</v>
       </c>
       <c r="D6" s="7">
-        <v>317886</v>
+        <v>437533</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1291,10 +2845,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>426</v>
       </c>
       <c r="I6" s="7">
-        <v>280815</v>
+        <v>407697</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1306,10 +2860,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>316</v>
+        <v>870</v>
       </c>
       <c r="N6" s="7">
-        <v>598701</v>
+        <v>845230</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1327,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="D7" s="7">
-        <v>352341</v>
+        <v>487681</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1342,10 +2896,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="I7" s="7">
-        <v>346929</v>
+        <v>464683</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1357,10 +2911,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>369</v>
+        <v>978</v>
       </c>
       <c r="N7" s="7">
-        <v>699270</v>
+        <v>952364</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1380,49 +2934,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>1056</v>
+        <v>7278</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>9288</v>
+        <v>19512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>10344</v>
+        <v>26790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,49 +2985,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>77435</v>
+        <v>79947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>93221</v>
+        <v>76212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>170656</v>
+        <v>156158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,49 +3036,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>244</v>
+        <v>612</v>
       </c>
       <c r="D10" s="7">
-        <v>333989</v>
+        <v>639030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="I10" s="7">
-        <v>385141</v>
+        <v>525203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>597</v>
+        <v>1108</v>
       </c>
       <c r="N10" s="7">
-        <v>719130</v>
+        <v>1164234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,10 +3087,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>295</v>
+        <v>694</v>
       </c>
       <c r="D11" s="7">
-        <v>412480</v>
+        <v>726255</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1548,10 +3102,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>451</v>
+        <v>587</v>
       </c>
       <c r="I11" s="7">
-        <v>487650</v>
+        <v>620927</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1563,10 +3117,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>746</v>
+        <v>1281</v>
       </c>
       <c r="N11" s="7">
-        <v>900130</v>
+        <v>1347182</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1580,55 +3134,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>1316</v>
+        <v>11583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>3317</v>
+        <v>8704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>4633</v>
+        <v>20287</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,49 +3191,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>121823</v>
+        <v>90008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7">
-        <v>142563</v>
+        <v>105799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>334</v>
+        <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>264386</v>
+        <v>195807</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,49 +3242,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="D14" s="7">
-        <v>421101</v>
+        <v>524373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>594</v>
+        <v>549</v>
       </c>
       <c r="I14" s="7">
-        <v>414691</v>
+        <v>572388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>1011</v>
+        <v>1052</v>
       </c>
       <c r="N14" s="7">
-        <v>835791</v>
+        <v>1096762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="D15" s="7">
-        <v>544239</v>
+        <v>625964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1754,10 +3308,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>816</v>
+        <v>655</v>
       </c>
       <c r="I15" s="7">
-        <v>560571</v>
+        <v>686891</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1769,10 +3323,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1351</v>
+        <v>1256</v>
       </c>
       <c r="N15" s="7">
-        <v>1104810</v>
+        <v>1312856</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1786,55 +3340,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>4828</v>
+        <v>14655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>7429</v>
+        <v>8700</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>12257</v>
+        <v>23355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,49 +3397,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>196741</v>
+        <v>73899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7">
-        <v>212873</v>
+        <v>99440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>540</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>409614</v>
+        <v>173339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,49 +3448,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="D18" s="7">
-        <v>507264</v>
+        <v>423776</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>763</v>
+        <v>394</v>
       </c>
       <c r="I18" s="7">
-        <v>512222</v>
+        <v>404444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>1216</v>
+        <v>790</v>
       </c>
       <c r="N18" s="7">
-        <v>1019486</v>
+        <v>828219</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>653</v>
+        <v>477</v>
       </c>
       <c r="D19" s="7">
-        <v>708833</v>
+        <v>512330</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1960,10 +3514,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1121</v>
+        <v>499</v>
       </c>
       <c r="I19" s="7">
-        <v>732524</v>
+        <v>512584</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1975,10 +3529,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1774</v>
+        <v>976</v>
       </c>
       <c r="N19" s="7">
-        <v>1441357</v>
+        <v>1024914</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1992,55 +3546,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>1941</v>
+        <v>10701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7401</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="7">
+        <v>18</v>
+      </c>
+      <c r="N20" s="7">
+        <v>18102</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5026</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6967</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,49 +3603,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7">
-        <v>170004</v>
+        <v>69912</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="I21" s="7">
-        <v>218022</v>
+        <v>99708</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
-        <v>577</v>
+        <v>166</v>
       </c>
       <c r="N21" s="7">
-        <v>388026</v>
+        <v>169620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +3654,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>453</v>
+        <v>307</v>
       </c>
       <c r="D22" s="7">
-        <v>411991</v>
+        <v>300635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
-        <v>581</v>
+        <v>288</v>
       </c>
       <c r="I22" s="7">
-        <v>351934</v>
+        <v>293759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
-        <v>1034</v>
+        <v>595</v>
       </c>
       <c r="N22" s="7">
-        <v>763925</v>
+        <v>594394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,10 +3705,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>649</v>
+        <v>386</v>
       </c>
       <c r="D23" s="7">
-        <v>583936</v>
+        <v>381248</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2166,10 +3720,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>972</v>
+        <v>393</v>
       </c>
       <c r="I23" s="7">
-        <v>574981</v>
+        <v>400868</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2181,10 +3735,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1621</v>
+        <v>779</v>
       </c>
       <c r="N23" s="7">
-        <v>1158917</v>
+        <v>782116</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2198,55 +3752,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D24" s="7">
-        <v>37781</v>
+        <v>78643</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I24" s="7">
-        <v>59102</v>
+        <v>66572</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N24" s="7">
-        <v>96883</v>
+        <v>145215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,49 +3809,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>324</v>
+        <v>116</v>
       </c>
       <c r="D25" s="7">
-        <v>211791</v>
+        <v>111605</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>662</v>
+        <v>251</v>
       </c>
       <c r="I25" s="7">
-        <v>446099</v>
+        <v>257965</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
-        <v>986</v>
+        <v>367</v>
       </c>
       <c r="N25" s="7">
-        <v>657890</v>
+        <v>369571</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,49 +3860,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>632</v>
+        <v>318</v>
       </c>
       <c r="D26" s="7">
-        <v>432724</v>
+        <v>305878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
-        <v>888</v>
+        <v>343</v>
       </c>
       <c r="I26" s="7">
-        <v>488214</v>
+        <v>346648</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
-        <v>1520</v>
+        <v>661</v>
       </c>
       <c r="N26" s="7">
-        <v>920938</v>
+        <v>652526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,10 +3911,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1008</v>
+        <v>516</v>
       </c>
       <c r="D27" s="7">
-        <v>682296</v>
+        <v>496126</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2372,10 +3926,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1644</v>
+        <v>655</v>
       </c>
       <c r="I27" s="7">
-        <v>993415</v>
+        <v>671185</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2387,10 +3941,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2652</v>
+        <v>1171</v>
       </c>
       <c r="N27" s="7">
-        <v>1675711</v>
+        <v>1167312</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2410,49 +3964,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="D28" s="7">
-        <v>46922</v>
+        <v>140389</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I28" s="7">
-        <v>87091</v>
+        <v>131255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="N28" s="7">
-        <v>134013</v>
+        <v>271643</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,49 +4015,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>894</v>
+        <v>446</v>
       </c>
       <c r="D29" s="7">
-        <v>812249</v>
+        <v>457990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>1733</v>
+        <v>656</v>
       </c>
       <c r="I29" s="7">
-        <v>1175962</v>
+        <v>675745</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>2627</v>
+        <v>1102</v>
       </c>
       <c r="N29" s="7">
-        <v>1988211</v>
+        <v>1133735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,49 +4066,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2349</v>
+        <v>2580</v>
       </c>
       <c r="D30" s="7">
-        <v>2424954</v>
+        <v>2631226</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
-        <v>3345</v>
+        <v>2496</v>
       </c>
       <c r="I30" s="7">
-        <v>2433017</v>
+        <v>2550138</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>5694</v>
+        <v>5076</v>
       </c>
       <c r="N30" s="7">
-        <v>4857970</v>
+        <v>5181365</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,6 +4117,4734 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3229605</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3357138</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6586743</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFFE4EE-8FE0-42F3-A9AC-FA6877409860}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24290</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="7">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>24070</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M4" s="7">
+        <v>49</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48360</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47454</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="7">
+        <v>70</v>
+      </c>
+      <c r="I5" s="7">
+        <v>72323</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="7">
+        <v>119</v>
+      </c>
+      <c r="N5" s="7">
+        <v>119777</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>370</v>
+      </c>
+      <c r="D6" s="7">
+        <v>380484</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="7">
+        <v>326</v>
+      </c>
+      <c r="I6" s="7">
+        <v>332874</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" s="7">
+        <v>696</v>
+      </c>
+      <c r="N6" s="7">
+        <v>713357</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>444</v>
+      </c>
+      <c r="D7" s="7">
+        <v>452228</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>420</v>
+      </c>
+      <c r="I7" s="7">
+        <v>429267</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>864</v>
+      </c>
+      <c r="N7" s="7">
+        <v>881494</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24069</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="7">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>18311</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M8" s="7">
+        <v>40</v>
+      </c>
+      <c r="N8" s="7">
+        <v>42380</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>105</v>
+      </c>
+      <c r="D9" s="7">
+        <v>109516</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="7">
+        <v>102</v>
+      </c>
+      <c r="I9" s="7">
+        <v>107870</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" s="7">
+        <v>207</v>
+      </c>
+      <c r="N9" s="7">
+        <v>217386</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>538</v>
+      </c>
+      <c r="D10" s="7">
+        <v>552565</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="7">
+        <v>451</v>
+      </c>
+      <c r="I10" s="7">
+        <v>483010</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" s="7">
+        <v>989</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1035575</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>666</v>
+      </c>
+      <c r="D11" s="7">
+        <v>686150</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>570</v>
+      </c>
+      <c r="I11" s="7">
+        <v>609191</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1236</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1295341</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11576</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>15998</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>27574</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>130</v>
+      </c>
+      <c r="D13" s="7">
+        <v>133869</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="7">
+        <v>138</v>
+      </c>
+      <c r="I13" s="7">
+        <v>145842</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M13" s="7">
+        <v>268</v>
+      </c>
+      <c r="N13" s="7">
+        <v>279711</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>508</v>
+      </c>
+      <c r="D14" s="7">
+        <v>533577</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" s="7">
+        <v>512</v>
+      </c>
+      <c r="I14" s="7">
+        <v>547059</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1020</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1080637</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>649</v>
+      </c>
+      <c r="D15" s="7">
+        <v>679023</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
+        <v>665</v>
+      </c>
+      <c r="I15" s="7">
+        <v>708899</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1314</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1387922</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14094</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10440</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24534</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>129</v>
+      </c>
+      <c r="D17" s="7">
+        <v>147732</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="7">
+        <v>174</v>
+      </c>
+      <c r="I17" s="7">
+        <v>194299</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" s="7">
+        <v>303</v>
+      </c>
+      <c r="N17" s="7">
+        <v>342030</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>406</v>
+      </c>
+      <c r="D18" s="7">
+        <v>450739</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="7">
+        <v>358</v>
+      </c>
+      <c r="I18" s="7">
+        <v>411460</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" s="7">
+        <v>764</v>
+      </c>
+      <c r="N18" s="7">
+        <v>862199</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>546</v>
+      </c>
+      <c r="D19" s="7">
+        <v>612565</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>539</v>
+      </c>
+      <c r="I19" s="7">
+        <v>616199</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1085</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1228764</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>12441</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" s="7">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10579</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M20" s="7">
+        <v>21</v>
+      </c>
+      <c r="N20" s="7">
+        <v>23021</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>94</v>
+      </c>
+      <c r="D21" s="7">
+        <v>100214</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H21" s="7">
+        <v>157</v>
+      </c>
+      <c r="I21" s="7">
+        <v>171496</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M21" s="7">
+        <v>251</v>
+      </c>
+      <c r="N21" s="7">
+        <v>271710</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>285</v>
+      </c>
+      <c r="D22" s="7">
+        <v>314425</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H22" s="7">
+        <v>238</v>
+      </c>
+      <c r="I22" s="7">
+        <v>263676</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M22" s="7">
+        <v>523</v>
+      </c>
+      <c r="N22" s="7">
+        <v>578101</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>391</v>
+      </c>
+      <c r="D23" s="7">
+        <v>427080</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
+        <v>404</v>
+      </c>
+      <c r="I23" s="7">
+        <v>445751</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
+        <v>795</v>
+      </c>
+      <c r="N23" s="7">
+        <v>872831</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>95</v>
+      </c>
+      <c r="D24" s="7">
+        <v>106964</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="7">
+        <v>94</v>
+      </c>
+      <c r="I24" s="7">
+        <v>101686</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M24" s="7">
+        <v>189</v>
+      </c>
+      <c r="N24" s="7">
+        <v>208650</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>141</v>
+      </c>
+      <c r="D25" s="7">
+        <v>152298</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="7">
+        <v>263</v>
+      </c>
+      <c r="I25" s="7">
+        <v>280848</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M25" s="7">
+        <v>404</v>
+      </c>
+      <c r="N25" s="7">
+        <v>433146</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>265</v>
+      </c>
+      <c r="D26" s="7">
+        <v>297252</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="7">
+        <v>334</v>
+      </c>
+      <c r="I26" s="7">
+        <v>357117</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M26" s="7">
+        <v>599</v>
+      </c>
+      <c r="N26" s="7">
+        <v>654369</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>501</v>
+      </c>
+      <c r="D27" s="7">
+        <v>556514</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="7">
+        <v>691</v>
+      </c>
+      <c r="I27" s="7">
+        <v>739651</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1192</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1296165</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>177</v>
+      </c>
+      <c r="D28" s="7">
+        <v>193436</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="7">
+        <v>166</v>
+      </c>
+      <c r="I28" s="7">
+        <v>181084</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="7">
+        <v>343</v>
+      </c>
+      <c r="N28" s="7">
+        <v>374519</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>648</v>
+      </c>
+      <c r="D29" s="7">
+        <v>691083</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H29" s="7">
+        <v>904</v>
+      </c>
+      <c r="I29" s="7">
+        <v>972678</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1663760</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2372</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2529041</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2219</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2395197</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M30" s="7">
+        <v>4591</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4924238</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3197</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3413560</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3289</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3548958</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6486</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6962518</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ECAC1F-4E99-49EC-BA25-D25171257C03}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24181</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="7">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18582</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M4" s="7">
+        <v>40</v>
+      </c>
+      <c r="N4" s="7">
+        <v>42763</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45425</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="7">
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>55283</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M5" s="7">
+        <v>99</v>
+      </c>
+      <c r="N5" s="7">
+        <v>100708</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>329</v>
+      </c>
+      <c r="D6" s="7">
+        <v>349857</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" s="7">
+        <v>328</v>
+      </c>
+      <c r="I6" s="7">
+        <v>320942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M6" s="7">
+        <v>657</v>
+      </c>
+      <c r="N6" s="7">
+        <v>670799</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>393</v>
+      </c>
+      <c r="D7" s="7">
+        <v>419463</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>403</v>
+      </c>
+      <c r="I7" s="7">
+        <v>394807</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>796</v>
+      </c>
+      <c r="N7" s="7">
+        <v>814270</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15933</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="7">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7">
+        <v>14217</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M8" s="7">
+        <v>30</v>
+      </c>
+      <c r="N8" s="7">
+        <v>30150</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7">
+        <v>87969</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H9" s="7">
+        <v>74</v>
+      </c>
+      <c r="I9" s="7">
+        <v>72854</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" s="7">
+        <v>155</v>
+      </c>
+      <c r="N9" s="7">
+        <v>160823</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>471</v>
+      </c>
+      <c r="D10" s="7">
+        <v>486594</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" s="7">
+        <v>488</v>
+      </c>
+      <c r="I10" s="7">
+        <v>474644</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M10" s="7">
+        <v>959</v>
+      </c>
+      <c r="N10" s="7">
+        <v>961238</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>567</v>
+      </c>
+      <c r="D11" s="7">
+        <v>590496</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>577</v>
+      </c>
+      <c r="I11" s="7">
+        <v>561715</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1144</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1152211</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3967</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9826</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="M12" s="7">
+        <v>14</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13793</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>117</v>
+      </c>
+      <c r="D13" s="7">
+        <v>126498</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="7">
+        <v>128</v>
+      </c>
+      <c r="I13" s="7">
+        <v>128749</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M13" s="7">
+        <v>245</v>
+      </c>
+      <c r="N13" s="7">
+        <v>255247</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>516</v>
+      </c>
+      <c r="D14" s="7">
+        <v>537045</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H14" s="7">
+        <v>527</v>
+      </c>
+      <c r="I14" s="7">
+        <v>522811</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1059856</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>637</v>
+      </c>
+      <c r="D15" s="7">
+        <v>667510</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
+        <v>665</v>
+      </c>
+      <c r="I15" s="7">
+        <v>661386</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1302</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1328896</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14470</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9185</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>23655</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>106</v>
+      </c>
+      <c r="D17" s="7">
+        <v>118941</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H17" s="7">
+        <v>153</v>
+      </c>
+      <c r="I17" s="7">
+        <v>168327</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M17" s="7">
+        <v>259</v>
+      </c>
+      <c r="N17" s="7">
+        <v>287267</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>460</v>
+      </c>
+      <c r="D18" s="7">
+        <v>510378</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H18" s="7">
+        <v>438</v>
+      </c>
+      <c r="I18" s="7">
+        <v>468500</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="M18" s="7">
+        <v>898</v>
+      </c>
+      <c r="N18" s="7">
+        <v>978878</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>580</v>
+      </c>
+      <c r="D19" s="7">
+        <v>643788</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>599</v>
+      </c>
+      <c r="I19" s="7">
+        <v>646012</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1179</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1289800</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>13920</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8369</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M20" s="7">
+        <v>19</v>
+      </c>
+      <c r="N20" s="7">
+        <v>22289</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>90</v>
+      </c>
+      <c r="D21" s="7">
+        <v>103854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H21" s="7">
+        <v>142</v>
+      </c>
+      <c r="I21" s="7">
+        <v>163153</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="M21" s="7">
+        <v>232</v>
+      </c>
+      <c r="N21" s="7">
+        <v>267007</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>321</v>
+      </c>
+      <c r="D22" s="7">
+        <v>358950</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H22" s="7">
+        <v>283</v>
+      </c>
+      <c r="I22" s="7">
+        <v>324281</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="M22" s="7">
+        <v>604</v>
+      </c>
+      <c r="N22" s="7">
+        <v>683232</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>423</v>
+      </c>
+      <c r="D23" s="7">
+        <v>476724</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
+        <v>432</v>
+      </c>
+      <c r="I23" s="7">
+        <v>495803</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
+        <v>855</v>
+      </c>
+      <c r="N23" s="7">
+        <v>972528</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>119</v>
+      </c>
+      <c r="D24" s="7">
+        <v>111549</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H24" s="7">
+        <v>87</v>
+      </c>
+      <c r="I24" s="7">
+        <v>103192</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M24" s="7">
+        <v>206</v>
+      </c>
+      <c r="N24" s="7">
+        <v>214742</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>125</v>
+      </c>
+      <c r="D25" s="7">
+        <v>119915</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H25" s="7">
+        <v>218</v>
+      </c>
+      <c r="I25" s="7">
+        <v>255167</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="M25" s="7">
+        <v>343</v>
+      </c>
+      <c r="N25" s="7">
+        <v>375082</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>381</v>
+      </c>
+      <c r="D26" s="7">
+        <v>358139</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H26" s="7">
+        <v>344</v>
+      </c>
+      <c r="I26" s="7">
+        <v>411919</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M26" s="7">
+        <v>725</v>
+      </c>
+      <c r="N26" s="7">
+        <v>770058</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>625</v>
+      </c>
+      <c r="D27" s="7">
+        <v>589603</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="7">
+        <v>649</v>
+      </c>
+      <c r="I27" s="7">
+        <v>770278</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1274</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1359882</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>185</v>
+      </c>
+      <c r="D28" s="7">
+        <v>184020</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H28" s="7">
+        <v>146</v>
+      </c>
+      <c r="I28" s="7">
+        <v>163371</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M28" s="7">
+        <v>331</v>
+      </c>
+      <c r="N28" s="7">
+        <v>347391</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>562</v>
+      </c>
+      <c r="D29" s="7">
+        <v>602601</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H29" s="7">
+        <v>771</v>
+      </c>
+      <c r="I29" s="7">
+        <v>843533</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1446135</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2478</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2600963</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2408</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2523098</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M30" s="7">
+        <v>4886</v>
+      </c>
+      <c r="N30" s="7">
+        <v>5124061</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3387584</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3325</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3530002</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>6550</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6917587</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF114581-EA1D-42B6-AA96-3D4B6ED69117}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5173</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5173</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28988</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="7">
+        <v>27</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46754</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M5" s="7">
+        <v>40</v>
+      </c>
+      <c r="N5" s="7">
+        <v>75742</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>152</v>
+      </c>
+      <c r="D6" s="7">
+        <v>323353</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" s="7">
+        <v>173</v>
+      </c>
+      <c r="I6" s="7">
+        <v>295002</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="M6" s="7">
+        <v>325</v>
+      </c>
+      <c r="N6" s="7">
+        <v>618356</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>165</v>
+      </c>
+      <c r="D7" s="7">
+        <v>352341</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>204</v>
+      </c>
+      <c r="I7" s="7">
+        <v>346929</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>369</v>
+      </c>
+      <c r="N7" s="7">
+        <v>699270</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1056</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9288</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+      <c r="N8" s="7">
+        <v>10344</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7">
+        <v>59852</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="H9" s="7">
+        <v>81</v>
+      </c>
+      <c r="I9" s="7">
+        <v>85444</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="M9" s="7">
+        <v>122</v>
+      </c>
+      <c r="N9" s="7">
+        <v>145296</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>253</v>
+      </c>
+      <c r="D10" s="7">
+        <v>351572</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H10" s="7">
+        <v>362</v>
+      </c>
+      <c r="I10" s="7">
+        <v>392918</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="M10" s="7">
+        <v>615</v>
+      </c>
+      <c r="N10" s="7">
+        <v>744490</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>295</v>
+      </c>
+      <c r="D11" s="7">
+        <v>412480</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
+        <v>451</v>
+      </c>
+      <c r="I11" s="7">
+        <v>487650</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="7">
+        <v>746</v>
+      </c>
+      <c r="N11" s="7">
+        <v>900130</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1316</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3317</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>4633</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>106</v>
+      </c>
+      <c r="D13" s="7">
+        <v>107883</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="H13" s="7">
+        <v>189</v>
+      </c>
+      <c r="I13" s="7">
+        <v>123505</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="M13" s="7">
+        <v>295</v>
+      </c>
+      <c r="N13" s="7">
+        <v>231388</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7">
+        <v>428</v>
+      </c>
+      <c r="D14" s="7">
+        <v>435040</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="H14" s="7">
+        <v>622</v>
+      </c>
+      <c r="I14" s="7">
+        <v>433749</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1050</v>
+      </c>
+      <c r="N14" s="7">
+        <v>868790</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>535</v>
+      </c>
+      <c r="D15" s="7">
+        <v>544239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
+        <v>816</v>
+      </c>
+      <c r="I15" s="7">
+        <v>560571</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1351</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1104810</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4828</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H16" s="7">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7">
+        <v>8115</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="M16" s="7">
+        <v>19</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12943</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>175</v>
+      </c>
+      <c r="D17" s="7">
+        <v>175925</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H17" s="7">
+        <v>316</v>
+      </c>
+      <c r="I17" s="7">
+        <v>193777</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="M17" s="7">
+        <v>491</v>
+      </c>
+      <c r="N17" s="7">
+        <v>369702</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
+        <v>472</v>
+      </c>
+      <c r="D18" s="7">
+        <v>528079</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="H18" s="7">
+        <v>792</v>
+      </c>
+      <c r="I18" s="7">
+        <v>530632</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1264</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1058712</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>653</v>
+      </c>
+      <c r="D19" s="7">
+        <v>708833</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1121</v>
+      </c>
+      <c r="I19" s="7">
+        <v>732524</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1774</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1441357</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1941</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5026</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6967</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
+        <v>187</v>
+      </c>
+      <c r="D21" s="7">
+        <v>163082</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="H21" s="7">
+        <v>381</v>
+      </c>
+      <c r="I21" s="7">
+        <v>216554</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="M21" s="7">
+        <v>568</v>
+      </c>
+      <c r="N21" s="7">
+        <v>379636</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7">
+        <v>460</v>
+      </c>
+      <c r="D22" s="7">
+        <v>418913</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H22" s="7">
+        <v>583</v>
+      </c>
+      <c r="I22" s="7">
+        <v>353401</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1043</v>
+      </c>
+      <c r="N22" s="7">
+        <v>772315</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>649</v>
+      </c>
+      <c r="D23" s="7">
+        <v>583936</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
+        <v>972</v>
+      </c>
+      <c r="I23" s="7">
+        <v>574981</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1621</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1158917</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>53</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38552</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H24" s="7">
+        <v>96</v>
+      </c>
+      <c r="I24" s="7">
+        <v>60425</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="M24" s="7">
+        <v>149</v>
+      </c>
+      <c r="N24" s="7">
+        <v>98977</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>321</v>
+      </c>
+      <c r="D25" s="7">
+        <v>210135</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="H25" s="7">
+        <v>655</v>
+      </c>
+      <c r="I25" s="7">
+        <v>442095</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="M25" s="7">
+        <v>976</v>
+      </c>
+      <c r="N25" s="7">
+        <v>652230</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>634</v>
+      </c>
+      <c r="D26" s="7">
+        <v>433609</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="H26" s="7">
+        <v>893</v>
+      </c>
+      <c r="I26" s="7">
+        <v>490895</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1527</v>
+      </c>
+      <c r="N26" s="7">
+        <v>924504</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1008</v>
+      </c>
+      <c r="D27" s="7">
+        <v>682296</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1644</v>
+      </c>
+      <c r="I27" s="7">
+        <v>993415</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2652</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1675711</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>63</v>
+      </c>
+      <c r="D28" s="7">
+        <v>47693</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="H28" s="7">
+        <v>134</v>
+      </c>
+      <c r="I28" s="7">
+        <v>91344</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="M28" s="7">
+        <v>197</v>
+      </c>
+      <c r="N28" s="7">
+        <v>139037</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>843</v>
+      </c>
+      <c r="D29" s="7">
+        <v>745864</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1649</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1108128</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2492</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1853992</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2399</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2490568</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3425</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2496598</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5824</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4987165</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
         <v>3305</v>
       </c>
       <c r="D31" s="7">
@@ -2610,7 +8892,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{765F0806-4FE6-4387-BE2E-3A84D4E7B097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4AFD76-2172-4832-9A54-DDF739EC3FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B80742AE-F320-4EA9-8D74-A7B4EC9A7B42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C90DFA20-5CAD-4348-B8CA-E1F8AAF3366B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="719">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>5,86%</t>
+    <t>5,69%</t>
   </si>
   <si>
     <t>4,38%</t>
@@ -89,2116 +89,2113 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>6,57%</t>
+    <t>6,52%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Menos</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2012 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>24,39%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>77,52%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>67,55%</t>
   </si>
   <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>71,45%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD99A272-55BB-4A23-84F3-781B691A2630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026A2D4-33D6-48C9-B684-F331B31D49FC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2946,7 +2943,7 @@
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2955,13 +2952,13 @@
         <v>19512</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2970,13 +2967,13 @@
         <v>26790</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +2988,13 @@
         <v>79947</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -3006,13 +3003,13 @@
         <v>76212</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>149</v>
@@ -3021,13 +3018,13 @@
         <v>156158</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3039,13 @@
         <v>639030</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>496</v>
@@ -3057,13 +3054,13 @@
         <v>525203</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
@@ -3072,13 +3069,13 @@
         <v>1164234</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3131,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3146,13 +3143,13 @@
         <v>11583</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -3161,13 +3158,13 @@
         <v>8704</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -3176,13 +3173,13 @@
         <v>20287</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3194,13 @@
         <v>90008</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>98</v>
@@ -3212,13 +3209,13 @@
         <v>105799</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -3227,13 +3224,13 @@
         <v>195807</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3245,13 @@
         <v>524373</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>549</v>
@@ -3263,28 +3260,28 @@
         <v>572388</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>1052</v>
       </c>
       <c r="N14" s="7">
-        <v>1096762</v>
+        <v>1096761</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3323,7 @@
         <v>1256</v>
       </c>
       <c r="N15" s="7">
-        <v>1312856</v>
+        <v>1312855</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3340,7 +3337,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3349,13 @@
         <v>14655</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3367,13 +3364,13 @@
         <v>8700</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3382,13 +3379,13 @@
         <v>23355</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3400,13 @@
         <v>73899</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3418,13 +3415,13 @@
         <v>99440</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>164</v>
@@ -3433,13 +3430,13 @@
         <v>173339</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3451,13 @@
         <v>423776</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>394</v>
@@ -3469,13 +3466,13 @@
         <v>404444</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>790</v>
@@ -3484,13 +3481,13 @@
         <v>828219</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3543,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3558,13 +3555,13 @@
         <v>10701</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3573,13 +3570,13 @@
         <v>7401</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -3588,13 +3585,13 @@
         <v>18102</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3606,13 @@
         <v>69912</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>98</v>
@@ -3624,13 +3621,13 @@
         <v>99708</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -3639,13 +3636,13 @@
         <v>169620</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3657,13 @@
         <v>300635</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
@@ -3675,13 +3672,13 @@
         <v>293759</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>595</v>
@@ -3690,13 +3687,13 @@
         <v>594394</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3749,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3761,13 @@
         <v>78643</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -3779,13 +3776,13 @@
         <v>66572</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -3794,13 +3791,13 @@
         <v>145215</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3812,13 @@
         <v>111605</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>251</v>
@@ -3830,13 +3827,13 @@
         <v>257965</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>367</v>
@@ -3845,13 +3842,13 @@
         <v>369571</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3863,13 @@
         <v>305878</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>343</v>
@@ -3881,13 +3878,13 @@
         <v>346648</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>661</v>
@@ -3896,13 +3893,13 @@
         <v>652526</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3967,13 @@
         <v>140389</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -3985,13 +3982,13 @@
         <v>131255</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -4000,13 +3997,13 @@
         <v>271643</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4018,13 @@
         <v>457990</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>656</v>
@@ -4036,13 +4033,13 @@
         <v>675745</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>1102</v>
@@ -4051,13 +4048,13 @@
         <v>1133735</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4069,13 @@
         <v>2631226</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>2496</v>
@@ -4087,10 +4084,10 @@
         <v>2550138</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>200</v>
@@ -4186,7 +4183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFFE4EE-8FE0-42F3-A9AC-FA6877409860}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25115D-0CD1-4693-85D5-FBE7B701E7F7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4367,7 +4364,7 @@
         <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4397,7 +4394,7 @@
         <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4409,13 @@
         <v>380484</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>326</v>
@@ -4427,13 +4424,13 @@
         <v>332874</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>696</v>
@@ -4442,13 +4439,13 @@
         <v>713357</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4513,13 @@
         <v>24069</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4531,13 +4528,13 @@
         <v>18311</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4546,13 +4543,13 @@
         <v>42380</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,10 +4564,10 @@
         <v>109516</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>242</v>
@@ -4603,7 +4600,7 @@
         <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>248</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4615,13 @@
         <v>552565</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>451</v>
@@ -4633,13 +4630,13 @@
         <v>483010</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>989</v>
@@ -4648,13 +4645,13 @@
         <v>1035575</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4707,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4722,10 +4719,10 @@
         <v>11576</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>258</v>
@@ -4743,7 +4740,7 @@
         <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -4752,13 +4749,13 @@
         <v>27574</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4770,13 @@
         <v>133869</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -4788,13 +4785,13 @@
         <v>145842</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -4803,13 +4800,13 @@
         <v>279711</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4821,13 @@
         <v>533577</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -4839,13 +4836,13 @@
         <v>547059</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>1020</v>
@@ -4854,13 +4851,13 @@
         <v>1080637</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,7 +4913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4928,13 +4925,13 @@
         <v>14094</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4943,13 +4940,13 @@
         <v>10440</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4958,13 +4955,13 @@
         <v>24534</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4976,13 @@
         <v>147732</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -4994,13 +4991,13 @@
         <v>194299</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -5009,13 +5006,13 @@
         <v>342030</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5027,13 @@
         <v>450739</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>358</v>
@@ -5045,13 +5042,13 @@
         <v>411460</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>764</v>
@@ -5060,13 +5057,13 @@
         <v>862199</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5119,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5134,13 +5131,13 @@
         <v>12441</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5149,13 +5146,13 @@
         <v>10579</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -5164,13 +5161,13 @@
         <v>23021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5182,13 @@
         <v>100214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H21" s="7">
         <v>157</v>
@@ -5200,13 +5197,13 @@
         <v>171496</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
         <v>251</v>
@@ -5215,13 +5212,13 @@
         <v>271710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5233,13 @@
         <v>314425</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>238</v>
@@ -5251,13 +5248,13 @@
         <v>263676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>523</v>
@@ -5266,13 +5263,13 @@
         <v>578101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,7 +5325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5340,13 +5337,13 @@
         <v>106964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>94</v>
@@ -5355,13 +5352,13 @@
         <v>101686</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -5370,13 +5367,13 @@
         <v>208650</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5388,13 @@
         <v>152298</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>263</v>
@@ -5406,13 +5403,13 @@
         <v>280848</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>404</v>
@@ -5421,13 +5418,13 @@
         <v>433146</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5439,13 @@
         <v>297252</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>334</v>
@@ -5457,13 +5454,13 @@
         <v>357117</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>599</v>
@@ -5472,13 +5469,13 @@
         <v>654369</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5543,13 @@
         <v>193436</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H28" s="7">
         <v>166</v>
@@ -5561,13 +5558,13 @@
         <v>181084</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>343</v>
@@ -5576,13 +5573,13 @@
         <v>374519</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5594,13 @@
         <v>691083</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H29" s="7">
         <v>904</v>
@@ -5612,13 +5609,13 @@
         <v>972678</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>1552</v>
@@ -5627,13 +5624,13 @@
         <v>1663760</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5645,13 @@
         <v>2529041</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H30" s="7">
         <v>2219</v>
@@ -5663,13 +5660,13 @@
         <v>2395197</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>4591</v>
@@ -5678,13 +5675,13 @@
         <v>4924238</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,7 +5759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ECAC1F-4E99-49EC-BA25-D25171257C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A4B1B-62F9-49D6-84A1-3949A885900E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5779,7 +5776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5886,13 +5883,13 @@
         <v>24181</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5901,13 +5898,13 @@
         <v>18582</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5916,13 +5913,13 @@
         <v>42763</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5934,13 @@
         <v>45425</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -5952,13 +5949,13 @@
         <v>55283</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -5967,13 +5964,13 @@
         <v>100708</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5985,13 @@
         <v>349857</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H6" s="7">
         <v>328</v>
@@ -6003,13 +6000,13 @@
         <v>320942</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M6" s="7">
         <v>657</v>
@@ -6018,13 +6015,13 @@
         <v>670799</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6089,13 @@
         <v>15933</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>414</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -6107,13 +6104,13 @@
         <v>14217</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -6122,13 +6119,13 @@
         <v>30150</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6140,13 @@
         <v>87969</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>423</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -6158,13 +6155,13 @@
         <v>72854</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>215</v>
+        <v>422</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -6173,13 +6170,13 @@
         <v>160823</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6191,13 @@
         <v>486594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>430</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>488</v>
@@ -6209,13 +6206,13 @@
         <v>474644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>959</v>
@@ -6224,13 +6221,13 @@
         <v>961238</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,7 +6283,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6298,13 +6295,13 @@
         <v>3967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>437</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -6313,13 +6310,13 @@
         <v>9826</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -6328,13 +6325,13 @@
         <v>13793</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>439</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6346,13 @@
         <v>126498</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6364,13 +6361,13 @@
         <v>128749</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -6379,10 +6376,10 @@
         <v>255247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>450</v>
@@ -6430,13 +6427,13 @@
         <v>1059856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +6489,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6504,13 +6501,13 @@
         <v>14470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6519,13 +6516,13 @@
         <v>9185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -6534,13 +6531,13 @@
         <v>23655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6552,13 @@
         <v>118941</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7">
         <v>153</v>
@@ -6570,13 +6567,13 @@
         <v>168327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>259</v>
@@ -6585,13 +6582,13 @@
         <v>287267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6603,13 @@
         <v>510378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H18" s="7">
         <v>438</v>
@@ -6621,13 +6618,13 @@
         <v>468500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="M18" s="7">
         <v>898</v>
@@ -6636,13 +6633,13 @@
         <v>978878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,7 +6695,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6710,13 +6707,13 @@
         <v>13920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6725,13 +6722,13 @@
         <v>8369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -6740,13 +6737,13 @@
         <v>22289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,13 +6758,13 @@
         <v>103854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>488</v>
+        <v>399</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -6776,13 +6773,13 @@
         <v>163153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M21" s="7">
         <v>232</v>
@@ -6791,13 +6788,13 @@
         <v>267007</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6809,13 @@
         <v>358950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -6827,13 +6824,13 @@
         <v>324281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>604</v>
@@ -6842,13 +6839,13 @@
         <v>683232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,7 +6901,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6916,13 +6913,13 @@
         <v>111549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H24" s="7">
         <v>87</v>
@@ -6931,13 +6928,13 @@
         <v>103192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M24" s="7">
         <v>206</v>
@@ -6946,13 +6943,13 @@
         <v>214742</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6964,13 @@
         <v>119915</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H25" s="7">
         <v>218</v>
@@ -6982,13 +6979,13 @@
         <v>255167</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>343</v>
@@ -6997,13 +6994,13 @@
         <v>375082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,13 +7015,13 @@
         <v>358139</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>344</v>
@@ -7033,13 +7030,13 @@
         <v>411919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>725</v>
@@ -7048,13 +7045,13 @@
         <v>770058</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7119,13 @@
         <v>184020</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H28" s="7">
         <v>146</v>
@@ -7137,13 +7134,13 @@
         <v>163371</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>536</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>331</v>
@@ -7152,13 +7149,13 @@
         <v>347391</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>535</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7170,13 @@
         <v>602601</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H29" s="7">
         <v>771</v>
@@ -7188,13 +7185,13 @@
         <v>843533</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M29" s="7">
         <v>1333</v>
@@ -7203,13 +7200,13 @@
         <v>1446135</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7221,13 @@
         <v>2600963</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H30" s="7">
         <v>2408</v>
@@ -7239,13 +7236,13 @@
         <v>2523098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M30" s="7">
         <v>4886</v>
@@ -7254,13 +7251,13 @@
         <v>5124061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,7 +7335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF114581-EA1D-42B6-AA96-3D4B6ED69117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6D08CD-6251-4D2F-91A9-749711FE03CC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7355,7 +7352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7462,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -7477,13 +7474,13 @@
         <v>5173</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -7492,13 +7489,13 @@
         <v>5173</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7510,13 @@
         <v>28988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
@@ -7528,13 +7525,13 @@
         <v>46754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -7543,13 +7540,13 @@
         <v>75742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7561,13 @@
         <v>323353</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H6" s="7">
         <v>173</v>
@@ -7579,13 +7576,13 @@
         <v>295002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>572</v>
+        <v>408</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M6" s="7">
         <v>325</v>
@@ -7594,13 +7591,13 @@
         <v>618356</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7665,13 @@
         <v>1056</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>579</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -7683,13 +7680,13 @@
         <v>9288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>584</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -7698,13 +7695,13 @@
         <v>10344</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>582</v>
+        <v>466</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>584</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7716,13 @@
         <v>59852</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -7734,13 +7731,13 @@
         <v>85444</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M9" s="7">
         <v>122</v>
@@ -7749,13 +7746,13 @@
         <v>145296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7767,13 @@
         <v>351572</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>594</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H10" s="7">
         <v>362</v>
@@ -7785,13 +7782,13 @@
         <v>392918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M10" s="7">
         <v>615</v>
@@ -7800,10 +7797,10 @@
         <v>744490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>601</v>
@@ -7862,7 +7859,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7877,10 +7874,10 @@
         <v>602</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>603</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -7889,13 +7886,13 @@
         <v>3317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>437</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>605</v>
+        <v>462</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7904,13 +7901,13 @@
         <v>4633</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7922,13 @@
         <v>107883</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -7940,13 +7937,13 @@
         <v>123505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
@@ -7955,13 +7952,13 @@
         <v>231388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,13 +7973,13 @@
         <v>435040</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>620</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
@@ -7991,13 +7988,13 @@
         <v>433749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>621</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M14" s="7">
         <v>1050</v>
@@ -8006,13 +8003,13 @@
         <v>868790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,7 +8065,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8080,13 +8077,13 @@
         <v>4828</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>623</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -8095,13 +8092,13 @@
         <v>8115</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8110,13 +8107,13 @@
         <v>12943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>629</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>630</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,10 +8128,10 @@
         <v>175925</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>633</v>
@@ -8185,10 +8182,10 @@
         <v>640</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>501</v>
+        <v>641</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H18" s="7">
         <v>792</v>
@@ -8197,13 +8194,13 @@
         <v>530632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M18" s="7">
         <v>1264</v>
@@ -8212,13 +8209,13 @@
         <v>1058712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8274,7 +8271,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8286,13 +8283,13 @@
         <v>1941</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -8301,13 +8298,13 @@
         <v>5026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>651</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>652</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -8316,7 +8313,7 @@
         <v>6967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>653</v>
@@ -8337,13 +8334,13 @@
         <v>163082</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="H21" s="7">
         <v>381</v>
@@ -8352,13 +8349,13 @@
         <v>216554</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="M21" s="7">
         <v>568</v>
@@ -8367,13 +8364,13 @@
         <v>379636</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8385,13 @@
         <v>418913</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="H22" s="7">
         <v>583</v>
@@ -8403,13 +8400,13 @@
         <v>353401</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="M22" s="7">
         <v>1043</v>
@@ -8418,13 +8415,13 @@
         <v>772315</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8480,7 +8477,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8492,13 +8489,13 @@
         <v>38552</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -8507,10 +8504,10 @@
         <v>60425</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>677</v>
@@ -8525,10 +8522,10 @@
         <v>678</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>679</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,13 +8540,13 @@
         <v>210135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>495</v>
+        <v>680</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H25" s="7">
         <v>655</v>
@@ -8558,13 +8555,13 @@
         <v>442095</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M25" s="7">
         <v>976</v>
@@ -8573,13 +8570,13 @@
         <v>652230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8594,13 +8591,13 @@
         <v>433609</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>688</v>
+        <v>502</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H26" s="7">
         <v>893</v>
@@ -8609,10 +8606,10 @@
         <v>490895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>691</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>692</v>
@@ -8698,13 +8695,13 @@
         <v>47693</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>579</v>
+        <v>696</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -8713,7 +8710,7 @@
         <v>91344</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>698</v>
+        <v>74</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>699</v>
@@ -8728,13 +8725,13 @@
         <v>139037</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8746,13 @@
         <v>745864</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>705</v>
       </c>
       <c r="H29" s="7">
         <v>1649</v>
@@ -8764,13 +8761,13 @@
         <v>1108128</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="M29" s="7">
         <v>2492</v>
@@ -8779,13 +8776,13 @@
         <v>1853992</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,16 +8794,16 @@
         <v>2399</v>
       </c>
       <c r="D30" s="7">
-        <v>2490568</v>
+        <v>2490567</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="H30" s="7">
         <v>3425</v>
@@ -8815,28 +8812,28 @@
         <v>2496598</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="M30" s="7">
         <v>5824</v>
       </c>
       <c r="N30" s="7">
-        <v>4987165</v>
+        <v>4987166</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8848,7 +8845,7 @@
         <v>3305</v>
       </c>
       <c r="D31" s="7">
-        <v>3284125</v>
+        <v>3284124</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -8878,7 +8875,7 @@
         <v>8513</v>
       </c>
       <c r="N31" s="7">
-        <v>6980194</v>
+        <v>6980195</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4AFD76-2172-4832-9A54-DDF739EC3FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA7BD96-E44E-4793-8C47-895AEB4BAD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C90DFA20-5CAD-4348-B8CA-E1F8AAF3366B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85B4DAA0-CADC-42E5-B149-D0BBD521205B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="811">
   <si>
     <t>Sueño recomendado (Sí/Más/Menos) en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Más</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -245,7 +245,7 @@
     <t>88,14%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,85%</t>
@@ -329,7 +329,7 @@
     <t>85,39%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -410,7 +410,7 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,81%</t>
@@ -491,85 +491,169 @@
     <t>79,01%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>19,33%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -1034,1168 +1118,1360 @@
     <t>69,37%</t>
   </si>
   <si>
-    <t>19,22%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2016 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>Sueño recomendado (Sí/Más/Menos) en 2023 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
 </sst>
 </file>
@@ -2607,8 +2883,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026A2D4-33D6-48C9-B684-F331B31D49FC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02A9A1-FBFA-4BB7-9506-8ACCB67BBC0C}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3755,49 +4031,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>78643</v>
+        <v>43166</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>66572</v>
+        <v>23200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="N24" s="7">
-        <v>145215</v>
+        <v>66366</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,49 +4082,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7">
-        <v>111605</v>
+        <v>60536</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="I25" s="7">
-        <v>257965</v>
+        <v>122753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="N25" s="7">
-        <v>369571</v>
+        <v>183289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,49 +4133,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="D26" s="7">
-        <v>305878</v>
+        <v>186070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="I26" s="7">
-        <v>346648</v>
+        <v>192246</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>661</v>
+        <v>401</v>
       </c>
       <c r="N26" s="7">
-        <v>652526</v>
+        <v>378315</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="D27" s="7">
-        <v>496126</v>
+        <v>289773</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3923,10 +4199,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>366</v>
       </c>
       <c r="I27" s="7">
-        <v>671185</v>
+        <v>338199</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3938,10 +4214,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1171</v>
+        <v>666</v>
       </c>
       <c r="N27" s="7">
-        <v>1167312</v>
+        <v>627971</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3955,55 +4231,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7">
-        <v>140389</v>
+        <v>35477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="I28" s="7">
-        <v>131255</v>
+        <v>43372</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="N28" s="7">
-        <v>271643</v>
+        <v>78849</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,49 +4288,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>446</v>
+        <v>53</v>
       </c>
       <c r="D29" s="7">
-        <v>457990</v>
+        <v>51069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
-        <v>656</v>
+        <v>118</v>
       </c>
       <c r="I29" s="7">
-        <v>675745</v>
+        <v>135212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
-        <v>1102</v>
+        <v>171</v>
       </c>
       <c r="N29" s="7">
-        <v>1133735</v>
+        <v>186281</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,49 +4339,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2580</v>
+        <v>126</v>
       </c>
       <c r="D30" s="7">
-        <v>2631226</v>
+        <v>119807</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
-        <v>2496</v>
+        <v>134</v>
       </c>
       <c r="I30" s="7">
-        <v>2550138</v>
+        <v>154403</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
-        <v>5076</v>
+        <v>260</v>
       </c>
       <c r="N30" s="7">
-        <v>5181365</v>
+        <v>274210</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,63 +4390,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>216</v>
+      </c>
+      <c r="D31" s="7">
+        <v>206353</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>289</v>
+      </c>
+      <c r="I31" s="7">
+        <v>332987</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>505</v>
+      </c>
+      <c r="N31" s="7">
+        <v>539340</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>140</v>
+      </c>
+      <c r="D32" s="7">
+        <v>140389</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>123</v>
+      </c>
+      <c r="I32" s="7">
+        <v>131255</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="7">
+        <v>263</v>
+      </c>
+      <c r="N32" s="7">
+        <v>271643</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>446</v>
+      </c>
+      <c r="D33" s="7">
+        <v>457990</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="7">
+        <v>656</v>
+      </c>
+      <c r="I33" s="7">
+        <v>675745</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1102</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1133735</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2580</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2631226</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2496</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2550138</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5076</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5181365</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3166</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3229605</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3275</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3357138</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6441</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6586743</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4183,8 +4666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E25115D-0CD1-4693-85D5-FBE7B701E7F7}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133ADDA2-89BA-430F-97A8-0D43BE61CC1A}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4200,7 +4683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4307,13 +4790,13 @@
         <v>24290</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4322,13 +4805,13 @@
         <v>24070</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -4337,13 +4820,13 @@
         <v>48360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,10 +4841,10 @@
         <v>47454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
@@ -4373,13 +4856,13 @@
         <v>72323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>119</v>
@@ -4388,10 +4871,10 @@
         <v>119777</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>109</v>
@@ -4409,13 +4892,13 @@
         <v>380484</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>326</v>
@@ -4424,13 +4907,13 @@
         <v>332874</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>696</v>
@@ -4439,13 +4922,13 @@
         <v>713357</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4996,13 @@
         <v>24069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4528,13 +5011,13 @@
         <v>18311</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4543,13 +5026,13 @@
         <v>42380</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +5047,13 @@
         <v>109516</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>102</v>
@@ -4579,13 +5062,13 @@
         <v>107870</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>207</v>
@@ -4594,10 +5077,10 @@
         <v>217386</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>108</v>
@@ -4615,13 +5098,13 @@
         <v>552565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>451</v>
@@ -4630,13 +5113,13 @@
         <v>483010</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>989</v>
@@ -4645,13 +5128,13 @@
         <v>1035575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,10 +5205,10 @@
         <v>99</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -4734,13 +5217,13 @@
         <v>15998</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -4770,13 +5253,13 @@
         <v>133869</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -4785,13 +5268,13 @@
         <v>145842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -4800,13 +5283,13 @@
         <v>279711</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5304,13 @@
         <v>533577</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>512</v>
@@ -4836,13 +5319,13 @@
         <v>547059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1020</v>
@@ -4851,13 +5334,13 @@
         <v>1080637</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +5408,13 @@
         <v>14094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4940,13 +5423,13 @@
         <v>10440</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -4955,13 +5438,13 @@
         <v>24534</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5459,13 @@
         <v>147732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>174</v>
@@ -4991,13 +5474,13 @@
         <v>194299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -5006,13 +5489,13 @@
         <v>342030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5510,13 @@
         <v>450739</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="H18" s="7">
         <v>358</v>
@@ -5042,13 +5525,13 @@
         <v>411460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>764</v>
@@ -5057,13 +5540,13 @@
         <v>862199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5614,13 @@
         <v>12441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -5146,10 +5629,10 @@
         <v>10579</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -5161,13 +5644,13 @@
         <v>23021</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5665,13 @@
         <v>100214</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="H21" s="7">
         <v>157</v>
@@ -5197,13 +5680,13 @@
         <v>171496</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>251</v>
@@ -5212,13 +5695,13 @@
         <v>271710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5716,13 @@
         <v>314425</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>238</v>
@@ -5248,13 +5731,13 @@
         <v>263676</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>523</v>
@@ -5263,13 +5746,13 @@
         <v>578101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,49 +5814,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>106964</v>
+        <v>53008</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="I24" s="7">
-        <v>101686</v>
+        <v>36617</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="M24" s="7">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>208650</v>
+        <v>89625</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>58</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,49 +5865,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7">
-        <v>152298</v>
+        <v>88997</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="H25" s="7">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="I25" s="7">
-        <v>280848</v>
+        <v>127484</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
-        <v>404</v>
+        <v>209</v>
       </c>
       <c r="N25" s="7">
-        <v>433146</v>
+        <v>216481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,49 +5916,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="D26" s="7">
-        <v>297252</v>
+        <v>167781</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="H26" s="7">
+        <v>184</v>
+      </c>
+      <c r="I26" s="7">
+        <v>189004</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M26" s="7">
         <v>334</v>
       </c>
-      <c r="I26" s="7">
-        <v>357117</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M26" s="7">
-        <v>599</v>
-      </c>
       <c r="N26" s="7">
-        <v>654369</v>
+        <v>356786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,10 +5967,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>501</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>556514</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5499,10 +5982,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>691</v>
+        <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>739651</v>
+        <v>353105</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5514,10 +5997,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1192</v>
+        <v>625</v>
       </c>
       <c r="N27" s="7">
-        <v>1296165</v>
+        <v>662892</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5531,55 +6014,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="D28" s="7">
-        <v>193436</v>
+        <v>53956</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="H28" s="7">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="I28" s="7">
-        <v>181084</v>
+        <v>65069</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M28" s="7">
-        <v>343</v>
+        <v>107</v>
       </c>
       <c r="N28" s="7">
-        <v>374519</v>
+        <v>119025</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,49 +6071,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>648</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>691083</v>
+        <v>63302</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
-        <v>904</v>
+        <v>138</v>
       </c>
       <c r="I29" s="7">
-        <v>972678</v>
+        <v>153364</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>137</v>
+        <v>398</v>
       </c>
       <c r="M29" s="7">
-        <v>1552</v>
+        <v>195</v>
       </c>
       <c r="N29" s="7">
-        <v>1663760</v>
+        <v>216665</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,49 +6122,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2372</v>
+        <v>115</v>
       </c>
       <c r="D30" s="7">
-        <v>2529041</v>
+        <v>129471</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="H30" s="7">
-        <v>2219</v>
+        <v>150</v>
       </c>
       <c r="I30" s="7">
-        <v>2395197</v>
+        <v>168113</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="M30" s="7">
-        <v>4591</v>
+        <v>265</v>
       </c>
       <c r="N30" s="7">
-        <v>4924238</v>
+        <v>297583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,63 +6173,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7">
+        <v>246728</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>386545</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>567</v>
+      </c>
+      <c r="N31" s="7">
+        <v>633273</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>177</v>
+      </c>
+      <c r="D32" s="7">
+        <v>193436</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H32" s="7">
+        <v>166</v>
+      </c>
+      <c r="I32" s="7">
+        <v>181084</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M32" s="7">
+        <v>343</v>
+      </c>
+      <c r="N32" s="7">
+        <v>374519</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>648</v>
+      </c>
+      <c r="D33" s="7">
+        <v>691083</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H33" s="7">
+        <v>904</v>
+      </c>
+      <c r="I33" s="7">
+        <v>972678</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1552</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1663760</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2372</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2529041</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2219</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2395197</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4591</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4924238</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3197</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3413560</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3289</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3548958</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6486</v>
       </c>
-      <c r="N31" s="7">
-        <v>6962518</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>6962517</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5759,8 +6449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A4B1B-62F9-49D6-84A1-3949A885900E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492872F0-10AF-46EF-BE83-A5594364D18C}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5776,7 +6466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5883,13 +6573,13 @@
         <v>24181</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5898,13 +6588,13 @@
         <v>18582</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -5913,13 +6603,13 @@
         <v>42763</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +6624,13 @@
         <v>45425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -5949,13 +6639,13 @@
         <v>55283</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -5964,13 +6654,13 @@
         <v>100708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6675,13 @@
         <v>349857</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>328</v>
@@ -6000,13 +6690,13 @@
         <v>320942</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>657</v>
@@ -6015,13 +6705,13 @@
         <v>670799</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,10 +6779,10 @@
         <v>15933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -6104,13 +6794,13 @@
         <v>14217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -6119,13 +6809,13 @@
         <v>30150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6830,13 @@
         <v>87969</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -6155,13 +6845,13 @@
         <v>72854</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -6170,13 +6860,13 @@
         <v>160823</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6881,13 @@
         <v>486594</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>488</v>
@@ -6206,13 +6896,13 @@
         <v>474644</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>959</v>
@@ -6221,13 +6911,13 @@
         <v>961238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +6988,10 @@
         <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -6310,13 +7000,13 @@
         <v>9826</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -6325,13 +7015,13 @@
         <v>13793</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +7036,13 @@
         <v>126498</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -6361,13 +7051,13 @@
         <v>128749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>245</v>
@@ -6376,13 +7066,13 @@
         <v>255247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +7087,13 @@
         <v>537045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -6412,13 +7102,13 @@
         <v>522811</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -6427,13 +7117,13 @@
         <v>1059856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +7191,13 @@
         <v>14470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -6516,13 +7206,13 @@
         <v>9185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -6531,13 +7221,13 @@
         <v>23655</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +7242,13 @@
         <v>118941</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>153</v>
@@ -6567,13 +7257,13 @@
         <v>168327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>259</v>
@@ -6582,13 +7272,13 @@
         <v>287267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,28 +7293,28 @@
         <v>510378</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="H18" s="7">
         <v>438</v>
       </c>
       <c r="I18" s="7">
-        <v>468500</v>
+        <v>468501</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="M18" s="7">
         <v>898</v>
@@ -6633,13 +7323,13 @@
         <v>978878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,7 +7356,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>646012</v>
+        <v>646013</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6707,13 +7397,13 @@
         <v>13920</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6722,10 +7412,10 @@
         <v>8369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>104</v>
@@ -6737,13 +7427,13 @@
         <v>22289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +7448,13 @@
         <v>103854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -6773,13 +7463,13 @@
         <v>163153</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="M21" s="7">
         <v>232</v>
@@ -6788,13 +7478,13 @@
         <v>267007</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>497</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +7499,13 @@
         <v>358950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
         <v>283</v>
@@ -6824,13 +7514,13 @@
         <v>324281</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>604</v>
@@ -6839,13 +7529,13 @@
         <v>683232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,49 +7597,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7">
-        <v>111549</v>
+        <v>53278</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="H24" s="7">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I24" s="7">
-        <v>103192</v>
+        <v>43627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="M24" s="7">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="N24" s="7">
-        <v>214742</v>
+        <v>96905</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,49 +7648,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="D25" s="7">
-        <v>119915</v>
+        <v>69500</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="H25" s="7">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="I25" s="7">
-        <v>255167</v>
+        <v>133792</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
-        <v>343</v>
+        <v>192</v>
       </c>
       <c r="N25" s="7">
-        <v>375082</v>
+        <v>203292</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,49 +7699,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="D26" s="7">
-        <v>358139</v>
+        <v>211552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
-        <v>344</v>
+        <v>185</v>
       </c>
       <c r="I26" s="7">
-        <v>411919</v>
+        <v>199374</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
-        <v>725</v>
+        <v>392</v>
       </c>
       <c r="N26" s="7">
-        <v>770058</v>
+        <v>410926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,10 +7750,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>589603</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7075,10 +7765,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>649</v>
+        <v>353</v>
       </c>
       <c r="I27" s="7">
-        <v>770278</v>
+        <v>376793</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7090,10 +7780,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1274</v>
+        <v>678</v>
       </c>
       <c r="N27" s="7">
-        <v>1359882</v>
+        <v>711123</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7107,55 +7797,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7">
-        <v>184020</v>
+        <v>58272</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>585</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="H28" s="7">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="I28" s="7">
-        <v>163371</v>
+        <v>59565</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>587</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>559</v>
       </c>
       <c r="M28" s="7">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="N28" s="7">
-        <v>347391</v>
+        <v>117837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>537</v>
+        <v>222</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>589</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,49 +7854,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>562</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7">
-        <v>602601</v>
+        <v>50415</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
-        <v>771</v>
+        <v>92</v>
       </c>
       <c r="I29" s="7">
-        <v>843533</v>
+        <v>121375</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>542</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>543</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
-        <v>1333</v>
+        <v>151</v>
       </c>
       <c r="N29" s="7">
-        <v>1446135</v>
+        <v>171790</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>545</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>546</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,49 +7905,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2478</v>
+        <v>174</v>
       </c>
       <c r="D30" s="7">
-        <v>2600963</v>
+        <v>146586</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
-        <v>2408</v>
+        <v>159</v>
       </c>
       <c r="I30" s="7">
-        <v>2523098</v>
+        <v>212545</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="M30" s="7">
-        <v>4886</v>
+        <v>333</v>
       </c>
       <c r="N30" s="7">
-        <v>5124061</v>
+        <v>359131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,63 +7956,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>300</v>
+      </c>
+      <c r="D31" s="7">
+        <v>255273</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>296</v>
+      </c>
+      <c r="I31" s="7">
+        <v>393485</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>596</v>
+      </c>
+      <c r="N31" s="7">
+        <v>648758</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>185</v>
+      </c>
+      <c r="D32" s="7">
+        <v>184020</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="H32" s="7">
+        <v>146</v>
+      </c>
+      <c r="I32" s="7">
+        <v>163371</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M32" s="7">
+        <v>331</v>
+      </c>
+      <c r="N32" s="7">
+        <v>347391</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>562</v>
+      </c>
+      <c r="D33" s="7">
+        <v>602601</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="H33" s="7">
+        <v>771</v>
+      </c>
+      <c r="I33" s="7">
+        <v>843533</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1446135</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2478</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2600963</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2408</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2523098</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4886</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5124061</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3225</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3387584</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3325</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3530002</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6550</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6917587</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7335,8 +8232,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6D08CD-6251-4D2F-91A9-749711FE03CC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4074DB0F-70D1-4241-8ACA-D52BDBBCB211}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7352,7 +8249,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>630</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7459,43 +8356,43 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>559</v>
+        <v>633</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>5173</v>
+        <v>4638</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>436</v>
+        <v>634</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>5173</v>
+        <v>4638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,46 +8404,46 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>28988</v>
+        <v>33352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>566</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="H5" s="7">
         <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>46754</v>
+        <v>41287</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>569</v>
+        <v>51</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>570</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>75742</v>
+        <v>74639</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>394</v>
+        <v>643</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,46 +8455,46 @@
         <v>152</v>
       </c>
       <c r="D6" s="7">
-        <v>323353</v>
+        <v>337835</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="H6" s="7">
         <v>173</v>
       </c>
       <c r="I6" s="7">
-        <v>295002</v>
+        <v>260133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>408</v>
+        <v>649</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="M6" s="7">
         <v>325</v>
       </c>
       <c r="N6" s="7">
-        <v>618356</v>
+        <v>597969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +8506,7 @@
         <v>165</v>
       </c>
       <c r="D7" s="7">
-        <v>352341</v>
+        <v>371187</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7624,7 +8521,7 @@
         <v>204</v>
       </c>
       <c r="I7" s="7">
-        <v>346929</v>
+        <v>306058</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7639,7 +8536,7 @@
         <v>369</v>
       </c>
       <c r="N7" s="7">
-        <v>699270</v>
+        <v>677246</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7662,46 +8559,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1056</v>
+        <v>1192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>9288</v>
+        <v>9235</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>583</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>10344</v>
+        <v>10427</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,46 +8610,46 @@
         <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>59852</v>
+        <v>62611</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
       </c>
       <c r="I9" s="7">
-        <v>85444</v>
+        <v>80488</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="M9" s="7">
         <v>122</v>
       </c>
       <c r="N9" s="7">
-        <v>145296</v>
+        <v>143099</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,46 +8661,46 @@
         <v>253</v>
       </c>
       <c r="D10" s="7">
-        <v>351572</v>
+        <v>342922</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>670</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="H10" s="7">
         <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>392918</v>
+        <v>411731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="M10" s="7">
         <v>615</v>
       </c>
       <c r="N10" s="7">
-        <v>744490</v>
+        <v>754654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>576</v>
+        <v>676</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,7 +8712,7 @@
         <v>295</v>
       </c>
       <c r="D11" s="7">
-        <v>412480</v>
+        <v>406725</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7830,7 +8727,7 @@
         <v>451</v>
       </c>
       <c r="I11" s="7">
-        <v>487650</v>
+        <v>501455</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7845,7 +8742,7 @@
         <v>746</v>
       </c>
       <c r="N11" s="7">
-        <v>900130</v>
+        <v>908180</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7868,46 +8765,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>512</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>3317</v>
+        <v>3116</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>679</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>462</v>
+        <v>681</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>4633</v>
+        <v>4438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,46 +8816,46 @@
         <v>106</v>
       </c>
       <c r="D13" s="7">
-        <v>107883</v>
+        <v>105372</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
       </c>
       <c r="I13" s="7">
-        <v>123505</v>
+        <v>116624</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="M13" s="7">
         <v>295</v>
       </c>
       <c r="N13" s="7">
-        <v>231388</v>
+        <v>221996</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,46 +8867,46 @@
         <v>428</v>
       </c>
       <c r="D14" s="7">
-        <v>435040</v>
+        <v>416628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>432</v>
+        <v>675</v>
       </c>
       <c r="H14" s="7">
         <v>622</v>
       </c>
       <c r="I14" s="7">
-        <v>433749</v>
+        <v>401150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>695</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="M14" s="7">
         <v>1050</v>
       </c>
       <c r="N14" s="7">
-        <v>868790</v>
+        <v>817778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,7 +8918,7 @@
         <v>535</v>
       </c>
       <c r="D15" s="7">
-        <v>544239</v>
+        <v>523322</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -8036,7 +8933,7 @@
         <v>816</v>
       </c>
       <c r="I15" s="7">
-        <v>560571</v>
+        <v>520890</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -8051,7 +8948,7 @@
         <v>1351</v>
       </c>
       <c r="N15" s="7">
-        <v>1104810</v>
+        <v>1044212</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -8074,46 +8971,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>4828</v>
+        <v>4545</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>625</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>8115</v>
+        <v>7561</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>627</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>12943</v>
+        <v>12106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>629</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,46 +9022,46 @@
         <v>175</v>
       </c>
       <c r="D17" s="7">
-        <v>175925</v>
+        <v>173783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="H17" s="7">
         <v>316</v>
       </c>
       <c r="I17" s="7">
-        <v>193777</v>
+        <v>181659</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="M17" s="7">
         <v>491</v>
       </c>
       <c r="N17" s="7">
-        <v>369702</v>
+        <v>355442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,46 +9073,46 @@
         <v>472</v>
       </c>
       <c r="D18" s="7">
-        <v>528079</v>
+        <v>694979</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="H18" s="7">
         <v>792</v>
       </c>
       <c r="I18" s="7">
-        <v>530632</v>
+        <v>509880</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="M18" s="7">
         <v>1264</v>
       </c>
       <c r="N18" s="7">
-        <v>1058712</v>
+        <v>1204858</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,7 +9124,7 @@
         <v>653</v>
       </c>
       <c r="D19" s="7">
-        <v>708833</v>
+        <v>873307</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8242,7 +9139,7 @@
         <v>1121</v>
       </c>
       <c r="I19" s="7">
-        <v>732524</v>
+        <v>699100</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8257,7 +9154,7 @@
         <v>1774</v>
       </c>
       <c r="N19" s="7">
-        <v>1441357</v>
+        <v>1572406</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8280,46 +9177,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1941</v>
+        <v>1853</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>631</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>650</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>5026</v>
+        <v>4686</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>43</v>
+        <v>705</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>652</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>6967</v>
+        <v>6539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>627</v>
+        <v>725</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>654</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,46 +9228,46 @@
         <v>187</v>
       </c>
       <c r="D21" s="7">
-        <v>163082</v>
+        <v>156276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>727</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="H21" s="7">
         <v>381</v>
       </c>
       <c r="I21" s="7">
-        <v>216554</v>
+        <v>200871</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="M21" s="7">
         <v>568</v>
       </c>
       <c r="N21" s="7">
-        <v>379636</v>
+        <v>357147</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>662</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,46 +9279,46 @@
         <v>460</v>
       </c>
       <c r="D22" s="7">
-        <v>418913</v>
+        <v>387837</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>663</v>
+        <v>736</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>665</v>
+        <v>738</v>
       </c>
       <c r="H22" s="7">
         <v>583</v>
       </c>
       <c r="I22" s="7">
-        <v>353401</v>
+        <v>321948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>666</v>
+        <v>739</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>667</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>740</v>
       </c>
       <c r="M22" s="7">
         <v>1043</v>
       </c>
       <c r="N22" s="7">
-        <v>772315</v>
+        <v>709785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>741</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>671</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,7 +9330,7 @@
         <v>649</v>
       </c>
       <c r="D23" s="7">
-        <v>583936</v>
+        <v>545966</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8448,7 +9345,7 @@
         <v>972</v>
       </c>
       <c r="I23" s="7">
-        <v>574981</v>
+        <v>527505</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8463,7 +9360,7 @@
         <v>1621</v>
       </c>
       <c r="N23" s="7">
-        <v>1158917</v>
+        <v>1073471</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8483,49 +9380,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>38552</v>
+        <v>15915</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>672</v>
+        <v>14</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>673</v>
+        <v>744</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>674</v>
+        <v>745</v>
       </c>
       <c r="H24" s="7">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I24" s="7">
-        <v>60425</v>
+        <v>17007</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>675</v>
+        <v>18</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>676</v>
+        <v>746</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>677</v>
+        <v>747</v>
       </c>
       <c r="M24" s="7">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>98977</v>
+        <v>32922</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>678</v>
+        <v>104</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>679</v>
+        <v>465</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>393</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,49 +9431,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>321</v>
+        <v>174</v>
       </c>
       <c r="D25" s="7">
-        <v>210135</v>
+        <v>110240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>680</v>
+        <v>749</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>681</v>
+        <v>750</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>682</v>
+        <v>751</v>
       </c>
       <c r="H25" s="7">
-        <v>655</v>
+        <v>306</v>
       </c>
       <c r="I25" s="7">
-        <v>442095</v>
+        <v>347373</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>683</v>
+        <v>580</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>684</v>
+        <v>752</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>685</v>
+        <v>482</v>
       </c>
       <c r="M25" s="7">
-        <v>976</v>
+        <v>480</v>
       </c>
       <c r="N25" s="7">
-        <v>652230</v>
+        <v>457613</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>686</v>
+        <v>753</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>687</v>
+        <v>754</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8585,49 +9482,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>634</v>
+        <v>366</v>
       </c>
       <c r="D26" s="7">
-        <v>433609</v>
+        <v>236808</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>689</v>
+        <v>756</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>757</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>690</v>
+        <v>758</v>
       </c>
       <c r="H26" s="7">
-        <v>893</v>
+        <v>469</v>
       </c>
       <c r="I26" s="7">
-        <v>490895</v>
+        <v>234498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>691</v>
+        <v>759</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>760</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>692</v>
+        <v>761</v>
       </c>
       <c r="M26" s="7">
-        <v>1527</v>
+        <v>835</v>
       </c>
       <c r="N26" s="7">
-        <v>924504</v>
+        <v>471305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>694</v>
+        <v>763</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>695</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,10 +9533,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1008</v>
+        <v>563</v>
       </c>
       <c r="D27" s="7">
-        <v>682296</v>
+        <v>362963</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8651,10 +9548,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1644</v>
+        <v>809</v>
       </c>
       <c r="I27" s="7">
-        <v>993415</v>
+        <v>598877</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8666,10 +9563,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2652</v>
+        <v>1372</v>
       </c>
       <c r="N27" s="7">
-        <v>1675711</v>
+        <v>961840</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8683,55 +9580,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7">
-        <v>47693</v>
+        <v>20818</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>696</v>
+        <v>765</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>697</v>
+        <v>766</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>698</v>
+        <v>767</v>
       </c>
       <c r="H28" s="7">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="I28" s="7">
-        <v>91344</v>
+        <v>35363</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>768</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="M28" s="7">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="N28" s="7">
-        <v>139037</v>
+        <v>56181</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>99</v>
+        <v>771</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>701</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8740,49 +9637,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>843</v>
+        <v>147</v>
       </c>
       <c r="D29" s="7">
-        <v>745864</v>
+        <v>87422</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>702</v>
+        <v>773</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>774</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="H29" s="7">
-        <v>1649</v>
+        <v>349</v>
       </c>
       <c r="I29" s="7">
-        <v>1108128</v>
+        <v>161088</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>704</v>
+        <v>776</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>705</v>
+        <v>777</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>706</v>
+        <v>778</v>
       </c>
       <c r="M29" s="7">
-        <v>2492</v>
+        <v>496</v>
       </c>
       <c r="N29" s="7">
-        <v>1853992</v>
+        <v>248510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>707</v>
+        <v>779</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>709</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8791,49 +9688,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2399</v>
+        <v>268</v>
       </c>
       <c r="D30" s="7">
-        <v>2490567</v>
+        <v>165169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>710</v>
+        <v>782</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="H30" s="7">
-        <v>3425</v>
+        <v>424</v>
       </c>
       <c r="I30" s="7">
-        <v>2496598</v>
+        <v>208114</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>713</v>
+        <v>785</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>715</v>
+        <v>787</v>
       </c>
       <c r="M30" s="7">
-        <v>5824</v>
+        <v>692</v>
       </c>
       <c r="N30" s="7">
-        <v>4987166</v>
+        <v>373283</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>716</v>
+        <v>788</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>718</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8842,63 +9739,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>445</v>
+      </c>
+      <c r="D31" s="7">
+        <v>273409</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>835</v>
+      </c>
+      <c r="I31" s="7">
+        <v>404565</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1280</v>
+      </c>
+      <c r="N31" s="7">
+        <v>677974</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>63</v>
+      </c>
+      <c r="D32" s="7">
+        <v>45644</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="H32" s="7">
+        <v>134</v>
+      </c>
+      <c r="I32" s="7">
+        <v>81607</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="M32" s="7">
+        <v>197</v>
+      </c>
+      <c r="N32" s="7">
+        <v>127251</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>843</v>
+      </c>
+      <c r="D33" s="7">
+        <v>729058</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1649</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1129388</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2492</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1858446</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2399</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2582177</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3425</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2347455</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5824</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4929632</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3305</v>
       </c>
-      <c r="D31" s="7">
-        <v>3284124</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3356879</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5208</v>
       </c>
-      <c r="I31" s="7">
-        <v>3696070</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3558450</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8513</v>
       </c>
-      <c r="N31" s="7">
-        <v>6980195</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>6915329</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R2-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2007</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4437,7 +4437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2012</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8328,7 +8328,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2016</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sueño recomendado (Sí/Más/Menos) en 2023</t>
+          <t>Población según si duerme más, menos o las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
